--- a/Team-Data/2012-13/3-14-2012-13.xlsx
+++ b/Team-Data/2012-13/3-14-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -786,7 +853,7 @@
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -959,7 +1026,7 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>0.469</v>
+        <v>0.476</v>
       </c>
       <c r="H8" t="n">
         <v>48.8</v>
@@ -1791,34 +1858,34 @@
         <v>0.371</v>
       </c>
       <c r="O8" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S8" t="n">
         <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
         <v>23</v>
       </c>
       <c r="V8" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.1</v>
@@ -1827,16 +1894,16 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="AC8" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1851,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="AI8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>3</v>
@@ -1866,25 +1933,25 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>2</v>
       </c>
       <c r="AR8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -2961,7 +3028,7 @@
         <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3310,7 +3377,7 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
         <v>16</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G21" t="n">
-        <v>0.603</v>
+        <v>0.613</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4154,16 +4221,16 @@
         <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4181,7 +4248,7 @@
         <v>12.2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>3.8</v>
@@ -4190,25 +4257,25 @@
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
         <v>8</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP21" t="n">
         <v>17</v>
@@ -4247,7 +4314,7 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT21" t="n">
         <v>22</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4614,7 +4681,7 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4808,7 +4875,7 @@
         <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-6</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -5034,31 +5101,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="n">
         <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469</v>
+        <v>0.46</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
         <v>23.5</v>
@@ -5073,19 +5140,19 @@
         <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V26" t="n">
         <v>14.8</v>
@@ -5100,37 +5167,37 @@
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>15</v>
@@ -5142,10 +5209,10 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP26" t="n">
         <v>22</v>
@@ -5172,13 +5239,13 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5391,7 @@
         <v>15</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -5398,40 +5465,40 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
         <v>0.381</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
         <v>21.4</v>
@@ -5443,13 +5510,13 @@
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
         <v>14.6</v>
@@ -5461,22 +5528,22 @@
         <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5539,7 +5606,7 @@
         <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5718,7 +5785,7 @@
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>16</v>
@@ -5733,7 +5800,7 @@
         <v>15</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5897,7 +5964,7 @@
         <v>21</v>
       </c>
       <c r="AW30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6085,7 +6152,7 @@
         <v>23</v>
       </c>
       <c r="AY31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-14-2012-13</t>
+          <t>2013-03-14</t>
         </is>
       </c>
     </row>
